--- a/results/mp/deberta/corona/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
@@ -82,12 +82,12 @@
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -109,10 +109,10 @@
     <t>relief</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>helping</t>
@@ -981,25 +981,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6883116883116883</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L14">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1007,25 +1007,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6732673267326733</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1215,25 +1215,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5304878048780488</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="L23">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1241,25 +1241,25 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5227272727272727</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="10:17">
